--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H2">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q2">
-        <v>0.2511301072361111</v>
+        <v>0.146241073328</v>
       </c>
       <c r="R2">
-        <v>2.260170965125</v>
+        <v>1.316169659952</v>
       </c>
       <c r="S2">
-        <v>0.005460747409481676</v>
+        <v>0.00424541483588006</v>
       </c>
       <c r="T2">
-        <v>0.005460747409481676</v>
+        <v>0.004245414835880062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,60 +602,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H3">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N3">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O3">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P3">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q3">
-        <v>0.1365527635811111</v>
+        <v>1.217476760048</v>
       </c>
       <c r="R3">
-        <v>1.22897487223</v>
+        <v>10.957290840432</v>
       </c>
       <c r="S3">
-        <v>0.002969298098861686</v>
+        <v>0.03534365402156376</v>
       </c>
       <c r="T3">
-        <v>0.002969298098861687</v>
+        <v>0.03534365402156376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541588333333333</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H4">
-        <v>7.624765</v>
+        <v>68.753095</v>
       </c>
       <c r="I4">
-        <v>0.04173735321957359</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J4">
-        <v>0.04173735321957359</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N4">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q4">
-        <v>1.531744124026667</v>
+        <v>1.231306817587778</v>
       </c>
       <c r="R4">
-        <v>13.78569711624</v>
+        <v>11.08176135829</v>
       </c>
       <c r="S4">
-        <v>0.03330730771123023</v>
+        <v>0.03574514404159909</v>
       </c>
       <c r="T4">
-        <v>0.03330730771123023</v>
+        <v>0.03574514404159909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,72 +732,72 @@
         <v>68.753095</v>
       </c>
       <c r="I5">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J5">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N5">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q5">
-        <v>2.264459576152778</v>
+        <v>10.25079617365444</v>
       </c>
       <c r="R5">
-        <v>20.380136185375</v>
+        <v>92.25716556288999</v>
       </c>
       <c r="S5">
-        <v>0.04923998122107338</v>
+        <v>0.2975831697953136</v>
       </c>
       <c r="T5">
-        <v>0.04923998122107338</v>
+        <v>0.2975831697953136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>22.91769833333333</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H6">
-        <v>68.753095</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I6">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J6">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,54 +812,54 @@
         <v>0.161182</v>
       </c>
       <c r="O6">
-        <v>0.07114246280162233</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P6">
-        <v>0.07114246280162234</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q6">
-        <v>1.231306817587778</v>
+        <v>0.001547383018222222</v>
       </c>
       <c r="R6">
-        <v>11.08176135829</v>
+        <v>0.013926447164</v>
       </c>
       <c r="S6">
-        <v>0.02677439032866678</v>
+        <v>4.492091498545985E-05</v>
       </c>
       <c r="T6">
-        <v>0.02677439032866678</v>
+        <v>4.492091498545985E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>22.91769833333333</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H7">
-        <v>68.753095</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I7">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J7">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602672</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N7">
-        <v>1.808016</v>
+        <v>1.341862</v>
       </c>
       <c r="O7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q7">
-        <v>13.81185508994667</v>
+        <v>0.01288217339155556</v>
       </c>
       <c r="R7">
-        <v>124.30669580952</v>
+        <v>0.115939560524</v>
       </c>
       <c r="S7">
-        <v>0.3003345665426337</v>
+        <v>0.0003739727067800321</v>
       </c>
       <c r="T7">
-        <v>0.3003345665426337</v>
+        <v>0.000373972706780032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,60 +912,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.39544900000001</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H8">
-        <v>106.186347</v>
+        <v>129.103369</v>
       </c>
       <c r="I8">
-        <v>0.5812555628711455</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J8">
-        <v>0.5812555628711454</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N8">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q8">
-        <v>3.497365323275</v>
+        <v>2.312126580239778</v>
       </c>
       <c r="R8">
-        <v>31.476287909475</v>
+        <v>20.809139222158</v>
       </c>
       <c r="S8">
-        <v>0.07604913978366186</v>
+        <v>0.06712161134216169</v>
       </c>
       <c r="T8">
-        <v>0.07604913978366185</v>
+        <v>0.06712161134216169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,122 +974,122 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.39544900000001</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H9">
-        <v>106.186347</v>
+        <v>129.103369</v>
       </c>
       <c r="I9">
-        <v>0.5812555628711455</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J9">
-        <v>0.5812555628711454</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N9">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O9">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P9">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q9">
-        <v>1.901703086906</v>
+        <v>19.24876721478645</v>
       </c>
       <c r="R9">
-        <v>17.115327782154</v>
+        <v>173.238904933078</v>
       </c>
       <c r="S9">
-        <v>0.04135195225979652</v>
+        <v>0.5587965134991237</v>
       </c>
       <c r="T9">
-        <v>0.04135195225979652</v>
+        <v>0.5587965134991237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>35.39544900000001</v>
+        <v>0.051263</v>
       </c>
       <c r="H10">
-        <v>106.186347</v>
+        <v>0.153789</v>
       </c>
       <c r="I10">
-        <v>0.5812555628711455</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="J10">
-        <v>0.5812555628711454</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N10">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q10">
-        <v>21.331846039728</v>
+        <v>0.002754224288666667</v>
       </c>
       <c r="R10">
-        <v>191.986614357552</v>
+        <v>0.024788018598</v>
       </c>
       <c r="S10">
-        <v>0.4638544708276872</v>
+        <v>7.99558180910035E-05</v>
       </c>
       <c r="T10">
-        <v>0.4638544708276871</v>
+        <v>7.995581809100351E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,170 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04007766666666666</v>
+        <v>0.051263</v>
       </c>
       <c r="H11">
-        <v>0.120233</v>
+        <v>0.153789</v>
       </c>
       <c r="I11">
-        <v>0.0006581458169070118</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="J11">
-        <v>0.0006581458169070117</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N11">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q11">
-        <v>0.003960007447222222</v>
+        <v>0.02292929056866667</v>
       </c>
       <c r="R11">
-        <v>0.035640067025</v>
+        <v>0.206363615118</v>
       </c>
       <c r="S11">
-        <v>8.610915133570811E-05</v>
+        <v>0.0006656430245016823</v>
       </c>
       <c r="T11">
-        <v>8.61091513357081E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.04007766666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.120233</v>
-      </c>
-      <c r="I12">
-        <v>0.0006581458169070118</v>
-      </c>
-      <c r="J12">
-        <v>0.0006581458169070117</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.161182</v>
-      </c>
-      <c r="O12">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P12">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q12">
-        <v>0.002153266156222222</v>
-      </c>
-      <c r="R12">
-        <v>0.019379395406</v>
-      </c>
-      <c r="S12">
-        <v>4.682211429735043E-05</v>
-      </c>
-      <c r="T12">
-        <v>4.682211429735043E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.04007766666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.120233</v>
-      </c>
-      <c r="I13">
-        <v>0.0006581458169070118</v>
-      </c>
-      <c r="J13">
-        <v>0.0006581458169070117</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.602672</v>
-      </c>
-      <c r="N13">
-        <v>1.808016</v>
-      </c>
-      <c r="O13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q13">
-        <v>0.02415368752533333</v>
-      </c>
-      <c r="R13">
-        <v>0.217383187728</v>
-      </c>
-      <c r="S13">
-        <v>0.0005252145512739533</v>
-      </c>
-      <c r="T13">
-        <v>0.0005252145512739532</v>
+        <v>0.0006656430245016822</v>
       </c>
     </row>
   </sheetData>
